--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hallen/Decuments/yupi_clone/BI/icebi-backend/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E579A9DC-78EE-A644-8964-11A6113A70F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455B5052-0C7E-6C4A-9DEA-15E74B064ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="1020" windowWidth="28060" windowHeight="16940" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:I11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23"/>
@@ -464,20 +464,106 @@
       <c r="D4"/>
       <c r="E4" s="1"/>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
     <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>68</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>11</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>34</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>114</v>
+      </c>
       <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>171</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
